--- a/biology/Médecine/Malocclusion_dentaire/Malocclusion_dentaire.xlsx
+++ b/biology/Médecine/Malocclusion_dentaire/Malocclusion_dentaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La malocclusion dentaire est un défaut d'alignement ou d'emboitement entre les dents des deux arcades dentaires lorsque celles-ci se rencontrent à la fermeture des mâchoires. 
-Le terme fait référence à la manière dont les dents opposées se rencontrent (mal  + occlusion = "occlusion incorrecte"). Chez l'humain, les spécialistes distinguent trois classes de malocclusion dentaire : la neutrocclusion, la distocclusion et la mésiocclusion[1]. Cette classification est issue des travaux d'Edward Angle, le père de l'orthodontie moderne[2].
+Le terme fait référence à la manière dont les dents opposées se rencontrent (mal  + occlusion = "occlusion incorrecte"). Chez l'humain, les spécialistes distinguent trois classes de malocclusion dentaire : la neutrocclusion, la distocclusion et la mésiocclusion. Cette classification est issue des travaux d'Edward Angle, le père de l'orthodontie moderne.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Chez l'Humain</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez l'enfant, la croissance faciale dépend autant de facteurs génétiques (chromosomes) que fonctionnels (fonction musculaire). La force musculaire peut être représentée par un vecteur physico-mathématique et celui-ci se définit par son point d'origine, sa direction, son sens et son intensité. Chez l'enfant, l'association des vecteurs dans un même muscle contribue pour beaucoup à la structure interne (orientation des trabécules osseuses) et à la croissance directionnelle des os de la face, ainsi qu'à toutes les fonctionnalités d'une bouche depuis le stade fœtal (grossesse) jusqu'à l'âge adulte (découvrir, téter, parler, manger, boire, avaler, chanter, respirer, etc.)
 Mal orientés, ces vecteurs musculaires peuvent freiner la croissance (palais étroit et profond, rétrognathie, prosopie, etc.), créer des malpositions dentaires (« récidives orthodontiques », articulé croisé, etc.) ou rendre l'élocution pénible (shuintement) : la fonctionnalité de la langue en est le meilleur exemple (déglutition salivaire infantile, déglutition atypique, déglutition dysfonctionnelle).
@@ -548,26 +562,93 @@
           <t>Chez les animaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez l'animal, la malocclusion dentaire provoque une gène peut aller jusqu'à l'impossibilité de s'alimenter et des douleurs insupportables qui rendent parfois nécessaire de recourir à l'euthanasie pour apaiser les souffrances d'un sujet âgé.
 			Alpaga souffrant de malocclusion dentaire
 			Un lapin atteint.
-Rongeurs et léporidés
-Bien que les incisives des rongeurs et léporidés poussent continuellement, normalement elles s'usent naturellement par frottement mutuel, sauf si l'animal est atteint d'une malocclusion dentaire[3]. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Malocclusion_dentaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Malocclusion_dentaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Chez les animaux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Rongeurs et léporidés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bien que les incisives des rongeurs et léporidés poussent continuellement, normalement elles s'usent naturellement par frottement mutuel, sauf si l'animal est atteint d'une malocclusion dentaire. 
 Les problèmes de malocclusion dentaire sont fréquents chez les rongeurs d'élevage comme le chinchilla, etc. ou chez le lapin.
-Considérée comme une tare héréditaire, l'éleveur ne devrait pas faire se reproduire un animal qui en souffre[4].
+Considérée comme une tare héréditaire, l'éleveur ne devrait pas faire se reproduire un animal qui en souffre.
 Symptômes :
 amaigrissement,
 yeux larmoyants,
 et problèmes de mastication.
 Conduite à tenir :
 malocclusion des incisives : on peut demander au vétérinaire de raccourcir les dents au moyen d'une pince et d'une lime.
-malocclusion des autres dents : des éperons poussent vers le haut, dans les orbites, ou vers le bas, dans la mâchoire. Des radiographies le détermineront. Chez un animal âgé, il faudra songer à abréger ses souffrances[5].
-Pathologie comparable
-</t>
-        </is>
-      </c>
+malocclusion des autres dents : des éperons poussent vers le haut, dans les orbites, ou vers le bas, dans la mâchoire. Des radiographies le détermineront. Chez un animal âgé, il faudra songer à abréger ses souffrances.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Malocclusion_dentaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Malocclusion_dentaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Chez les animaux</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pathologie comparable</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
